--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>姓名</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>预约时间</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
   <si>
     <t xml:space="preserve">李梦希 </t>
@@ -1109,7 +1112,7 @@
   <dimension ref="C7:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1165,9 +1168,13 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="9">
+        <v>17014049717</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1198,10 +1205,10 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="9">
         <v>17025472447</v>
@@ -1216,10 +1223,10 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="9">
         <v>17152022762</v>
@@ -1234,10 +1241,10 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="9">
         <v>17198008619</v>
@@ -1252,10 +1259,10 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="9">
         <v>17054654268</v>
@@ -1270,10 +1277,10 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="9">
         <v>17147715197</v>
@@ -1288,13 +1295,13 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="9">
-        <v>17014049717</v>
+        <v>17050685132</v>
       </c>
       <c r="F20" s="10">
         <v>18872055089</v>
@@ -1306,10 +1313,10 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6">
         <v>17050685132</v>
@@ -1322,10 +1329,10 @@
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7">
@@ -1336,10 +1343,10 @@
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
@@ -1350,10 +1357,10 @@
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
@@ -1364,10 +1371,10 @@
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
@@ -1378,10 +1385,10 @@
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
@@ -1392,10 +1399,10 @@
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="15">
@@ -1406,10 +1413,10 @@
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="15">

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -773,22 +773,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,7 +1112,7 @@
   <dimension ref="C7:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1204,91 +1204,91 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <v>17025472447</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>13212734213</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="12">
         <v>44895</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="10">
         <v>17152022762</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>13129949932</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="12">
         <v>44895</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="10">
         <v>17198008619</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="11">
         <v>15071061492</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>44895</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>17054654268</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>17875713686</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>44895</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>17147715197</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>13545147593</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="12">
         <v>44895</v>
       </c>
       <c r="H19" s="8"/>
@@ -1297,16 +1297,16 @@
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="9">
         <v>17050685132</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="14">
         <v>18872055089</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="15">
         <v>44895</v>
       </c>
       <c r="H20" s="8"/>
@@ -1315,7 +1315,7 @@
       <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="6">
@@ -1324,218 +1324,218 @@
       <c r="F21" s="7">
         <v>15730080765</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <v>15871380235</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <v>18153623551</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <v>17865815159</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <v>18704601232</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <v>15171980859</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15">
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
         <v>17865815139</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15">
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
         <v>15982066827</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>姓名</t>
   </si>
@@ -31,6 +31,21 @@
     <t>预约时间</t>
   </si>
   <si>
+    <t>张远媛</t>
+  </si>
+  <si>
+    <t>612426199806235426</t>
+  </si>
+  <si>
+    <t>李佳</t>
+  </si>
+  <si>
+    <t>411524199506020022</t>
+  </si>
+  <si>
+    <t>用户说打不了阔龄</t>
+  </si>
+  <si>
     <t>测试</t>
   </si>
   <si>
@@ -56,18 +71,6 @@
   </si>
   <si>
     <t>421023199507142927</t>
-  </si>
-  <si>
-    <t>李佳</t>
-  </si>
-  <si>
-    <t>411524199506020022</t>
-  </si>
-  <si>
-    <t>张远媛</t>
-  </si>
-  <si>
-    <t>612426199806235426</t>
   </si>
   <si>
     <t>晏林</t>
@@ -281,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,16 +635,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,10 +656,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,28 +680,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -701,19 +710,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,38 +731,41 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -773,22 +782,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:H42"/>
+  <dimension ref="C7:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1152,24 +1170,46 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9">
+        <v>17050685132</v>
+      </c>
+      <c r="F9" s="10">
+        <v>18872055089</v>
+      </c>
+      <c r="G9" s="11">
+        <v>44895</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12">
+        <v>17147715197</v>
+      </c>
+      <c r="F10" s="13">
+        <v>13545147593</v>
+      </c>
+      <c r="G10" s="14">
+        <v>44895</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="9">
@@ -1204,225 +1244,205 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="16">
         <v>17025472447</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="17">
         <v>13212734213</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="18">
         <v>44895</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="C16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="16">
         <v>17152022762</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="17">
         <v>13129949932</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="18">
         <v>44895</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16">
         <v>17198008619</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="17">
         <v>15071061492</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="18">
         <v>44895</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="C18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="16">
         <v>17054654268</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="17">
         <v>17875713686</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="18">
         <v>44895</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="10">
-        <v>17147715197</v>
-      </c>
-      <c r="F19" s="11">
-        <v>13545147593</v>
-      </c>
-      <c r="G19" s="12">
-        <v>44895</v>
-      </c>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6">
+        <v>17050685132</v>
+      </c>
+      <c r="F19" s="7">
+        <v>15730080765</v>
+      </c>
+      <c r="G19" s="20"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="9">
-        <v>17050685132</v>
-      </c>
-      <c r="F20" s="14">
-        <v>18872055089</v>
-      </c>
-      <c r="G20" s="15">
-        <v>44895</v>
-      </c>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>15871380235</v>
+      </c>
+      <c r="G20" s="20"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="6">
-        <v>17050685132</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="7">
-        <v>15730080765</v>
-      </c>
-      <c r="G21" s="16"/>
+        <v>18153623551</v>
+      </c>
+      <c r="G21" s="20"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7">
-        <v>15871380235</v>
-      </c>
-      <c r="G22" s="16"/>
+        <v>17865815159</v>
+      </c>
+      <c r="G22" s="20"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
-        <v>18153623551</v>
-      </c>
-      <c r="G23" s="16"/>
+        <v>18704601232</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
-        <v>17865815159</v>
-      </c>
-      <c r="G24" s="16"/>
+        <v>15171980859</v>
+      </c>
+      <c r="G24" s="20"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
-        <v>18704601232</v>
-      </c>
-      <c r="G25" s="16"/>
+        <v>17865815139</v>
+      </c>
+      <c r="G25" s="20"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
-        <v>15171980859</v>
-      </c>
-      <c r="G26" s="16"/>
+        <v>15982066827</v>
+      </c>
+      <c r="G26" s="20"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="7">
-        <v>17865815139</v>
-      </c>
-      <c r="G27" s="16"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="7">
-        <v>15982066827</v>
-      </c>
-      <c r="G28" s="16"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="3:8">
@@ -1521,22 +1541,6 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>姓名</t>
   </si>
@@ -46,15 +46,15 @@
     <t>用户说打不了阔龄</t>
   </si>
   <si>
+    <t xml:space="preserve">李梦希 </t>
+  </si>
+  <si>
+    <t>420821199403092363</t>
+  </si>
+  <si>
     <t>测试</t>
   </si>
   <si>
-    <t xml:space="preserve">李梦希 </t>
-  </si>
-  <si>
-    <t>420821199403092363</t>
-  </si>
-  <si>
     <t>汪少琴</t>
   </si>
   <si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>421081199905074281</t>
+  </si>
+  <si>
+    <t>吕丹</t>
+  </si>
+  <si>
+    <t>65412419940720442X</t>
+  </si>
+  <si>
+    <t>高佩</t>
+  </si>
+  <si>
+    <t>610502200007165626</t>
   </si>
 </sst>
 </file>
@@ -126,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,12 +160,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -162,38 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,9 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +212,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -231,6 +243,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -239,46 +265,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,25 +323,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,157 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,20 +556,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,17 +601,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,11 +623,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,145 +635,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:H40"/>
+  <dimension ref="C7:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1208,21 +1220,31 @@
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9">
+      <c r="D11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16">
+        <v>17025472447</v>
+      </c>
+      <c r="F11" s="17">
+        <v>13212734213</v>
+      </c>
+      <c r="G11" s="18">
+        <v>44895</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9">
         <v>17014049717</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1244,53 +1266,33 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16">
-        <v>17025472447</v>
-      </c>
-      <c r="F15" s="17">
-        <v>13212734213</v>
-      </c>
-      <c r="G15" s="18">
-        <v>44895</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>17152022762</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>13129949932</v>
-      </c>
-      <c r="G16" s="18">
-        <v>44895</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16">
-        <v>17198008619</v>
-      </c>
-      <c r="F17" s="17">
-        <v>15071061492</v>
       </c>
       <c r="G17" s="18">
         <v>44895</v>
@@ -1299,158 +1301,188 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16">
+        <v>17198008619</v>
+      </c>
+      <c r="F18" s="17">
+        <v>15071061492</v>
+      </c>
+      <c r="G18" s="18">
+        <v>44897</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>17054654268</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>17875713686</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G19" s="18">
         <v>44895</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="6">
-        <v>17050685132</v>
-      </c>
-      <c r="F19" s="7">
-        <v>15730080765</v>
-      </c>
-      <c r="G19" s="20"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="6">
+        <v>17050685132</v>
+      </c>
       <c r="F20" s="7">
-        <v>15871380235</v>
+        <v>15730080765</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7">
-        <v>18153623551</v>
+        <v>15871380235</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7">
-        <v>17865815159</v>
+        <v>18153623551</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
-        <v>18704601232</v>
+        <v>17865815159</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
-        <v>15171980859</v>
+        <v>18704601232</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
-        <v>17865815139</v>
+        <v>15171980859</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
-        <v>15982066827</v>
+        <v>17865815139</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="F27" s="7">
+        <v>15982066827</v>
+      </c>
+      <c r="G27" s="20"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="6">
+        <v>17147715197</v>
+      </c>
+      <c r="F28" s="7">
+        <v>19986936897</v>
+      </c>
+      <c r="G28" s="20">
+        <v>44897</v>
+      </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="6">
+        <v>17025472447</v>
+      </c>
+      <c r="F29" s="7">
+        <v>18191390509</v>
+      </c>
+      <c r="G29" s="20">
+        <v>44897</v>
+      </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="3:8">
@@ -1541,6 +1573,14 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>姓名</t>
   </si>
@@ -37,6 +37,24 @@
     <t>612426199806235426</t>
   </si>
   <si>
+    <t>黄露丹</t>
+  </si>
+  <si>
+    <t>420802199908260028</t>
+  </si>
+  <si>
+    <t>高佩</t>
+  </si>
+  <si>
+    <t>610502200007165626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李梦希 </t>
+  </si>
+  <si>
+    <t>420821199403092363</t>
+  </si>
+  <si>
     <t>李佳</t>
   </si>
   <si>
@@ -49,22 +67,10 @@
     <t>测试</t>
   </si>
   <si>
-    <t xml:space="preserve">李梦希 </t>
-  </si>
-  <si>
-    <t>420821199403092363</t>
-  </si>
-  <si>
     <t>汪少琴</t>
   </si>
   <si>
     <t>420322199908261221</t>
-  </si>
-  <si>
-    <t>黄露丹</t>
-  </si>
-  <si>
-    <t>420802199908260028</t>
   </si>
   <si>
     <t>胡雪敏</t>
@@ -284,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,16 +647,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,10 +668,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,28 +692,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -710,19 +722,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,38 +743,41 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -791,22 +803,28 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1127,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:H40"/>
+  <dimension ref="C7:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1173,7 +1191,7 @@
       <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9">
@@ -1188,253 +1206,263 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
+        <v>17198008619</v>
+      </c>
+      <c r="F10" s="10">
+        <v>15071061492</v>
+      </c>
+      <c r="G10" s="11">
+        <v>44897</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>17025472447</v>
+      </c>
+      <c r="F11" s="10">
+        <v>18191390509</v>
+      </c>
+      <c r="G11" s="11">
+        <v>44897</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12">
+        <v>17025472447</v>
+      </c>
+      <c r="F12" s="13">
+        <v>13212734213</v>
+      </c>
+      <c r="G12" s="14">
+        <v>44895</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="15">
         <v>17147715197</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F13" s="16">
         <v>13545147593</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G13" s="17">
         <v>44895</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9">
+      <c r="H13" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9">
         <v>17014049717</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16">
-        <v>17025472447</v>
-      </c>
-      <c r="F15" s="17">
-        <v>13212734213</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20">
+        <v>17152022762</v>
+      </c>
+      <c r="F18" s="21">
+        <v>13129949932</v>
+      </c>
+      <c r="G18" s="22">
         <v>44895</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="16">
-        <v>17152022762</v>
-      </c>
-      <c r="F16" s="17">
-        <v>13129949932</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="20">
+        <v>17054654268</v>
+      </c>
+      <c r="F19" s="21">
+        <v>17875713686</v>
+      </c>
+      <c r="G19" s="22">
         <v>44895</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16">
-        <v>17198008619</v>
-      </c>
-      <c r="F17" s="17">
-        <v>15071061492</v>
-      </c>
-      <c r="G17" s="18">
-        <v>44895</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="16">
-        <v>17054654268</v>
-      </c>
-      <c r="F18" s="17">
-        <v>17875713686</v>
-      </c>
-      <c r="G18" s="18">
-        <v>44895</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="6">
-        <v>17050685132</v>
-      </c>
-      <c r="F19" s="7">
-        <v>15730080765</v>
-      </c>
-      <c r="G19" s="20"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>17050685132</v>
+      </c>
       <c r="F20" s="7">
-        <v>15871380235</v>
-      </c>
-      <c r="G20" s="20"/>
+        <v>15730080765</v>
+      </c>
+      <c r="G20" s="23"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7">
-        <v>18153623551</v>
-      </c>
-      <c r="G21" s="20"/>
+        <v>15871380235</v>
+      </c>
+      <c r="G21" s="23"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7">
-        <v>17865815159</v>
-      </c>
-      <c r="G22" s="20"/>
+        <v>18153623551</v>
+      </c>
+      <c r="G22" s="23"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="29" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
-        <v>18704601232</v>
-      </c>
-      <c r="G23" s="20"/>
+        <v>17865815159</v>
+      </c>
+      <c r="G23" s="23"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
-        <v>15171980859</v>
-      </c>
-      <c r="G24" s="20"/>
+        <v>18704601232</v>
+      </c>
+      <c r="G24" s="23"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
-        <v>17865815139</v>
-      </c>
-      <c r="G25" s="20"/>
+        <v>15171980859</v>
+      </c>
+      <c r="G25" s="23"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
+        <v>17865815139</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
         <v>15982066827</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="3:8">
@@ -1541,6 +1569,14 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>姓名</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>421081199905074281</t>
+  </si>
+  <si>
+    <t>桂子艺</t>
+  </si>
+  <si>
+    <t>42080420021220232X</t>
+  </si>
+  <si>
+    <t>柴梦鸽</t>
+  </si>
+  <si>
+    <t>142731199711270928</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1160,7 @@
   <dimension ref="C7:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1482,18 +1494,30 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>13657150026</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>17762459127</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>142731199711270928</t>
+  </si>
+  <si>
+    <t>王露露</t>
+  </si>
+  <si>
+    <t>37078619970104064X</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1166,7 @@
   <dimension ref="C7:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1522,10 +1528,16 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>18864805773</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -795,33 +795,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -830,20 +836,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1166,458 +1177,516 @@
   <dimension ref="C7:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:8">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <v>17050685132</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="14">
         <v>18872055089</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="15">
         <v>44895</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="12">
         <v>17198008619</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="14">
         <v>15071061492</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="15">
         <v>44897</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="12">
         <v>17025472447</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="14">
         <v>18191390509</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="15">
         <v>44897</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>17025472447</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="18">
         <v>13212734213</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="19">
         <v>44895</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="20">
         <v>17147715197</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="22">
         <v>13545147593</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="23">
         <v>44895</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9">
+      <c r="D14" s="9"/>
+      <c r="E14" s="12">
         <v>17014049717</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="27">
         <v>17152022762</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="28">
         <v>13129949932</v>
       </c>
-      <c r="G18" s="22">
-        <v>44895</v>
-      </c>
-      <c r="H18" s="8"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="27">
         <v>17054654268</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="28">
         <v>17875713686</v>
       </c>
-      <c r="G19" s="22">
-        <v>44895</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>17050685132</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="10">
         <v>15730080765</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7">
+      <c r="E21" s="8"/>
+      <c r="F21" s="10">
         <v>15871380235</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7">
+      <c r="E22" s="8"/>
+      <c r="F22" s="10">
         <v>18153623551</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7">
+      <c r="E23" s="8"/>
+      <c r="F23" s="10">
         <v>17865815159</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7">
+      <c r="E24" s="8"/>
+      <c r="F24" s="10">
         <v>18704601232</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7">
+      <c r="E25" s="8"/>
+      <c r="F25" s="10">
         <v>15171980859</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7">
+      <c r="E26" s="8"/>
+      <c r="F26" s="10">
         <v>17865815139</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7">
+      <c r="E27" s="8"/>
+      <c r="F27" s="10">
         <v>15982066827</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="8"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="8">
         <v>17136341196</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="10">
         <v>13657150026</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="8">
         <v>17129530447</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="10">
         <v>17762459127</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="8">
         <v>17050683431</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="10">
         <v>18864805773</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="G32" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="10">
+        <v>15871380235</v>
+      </c>
+      <c r="G33" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="10">
+        <v>18153623551</v>
+      </c>
+      <c r="G34" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="C35" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="10">
+        <v>17865815159</v>
+      </c>
+      <c r="G35" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="10">
+        <v>15171980859</v>
+      </c>
+      <c r="G36" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="10">
+        <v>15982066827</v>
+      </c>
+      <c r="G37" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="10">
+        <v>15730080765</v>
+      </c>
+      <c r="G38" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="10">
+        <v>17865815139</v>
+      </c>
+      <c r="G39" s="31">
+        <v>44902</v>
+      </c>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
+    <sheet name="汉阳成功" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -317,25 +318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,15 +798,33 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -814,25 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -849,9 +850,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
@@ -1177,131 +1178,131 @@
   <dimension ref="C7:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="13" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11" style="15" customWidth="1"/>
+    <col min="8" max="8" width="34.25" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:8">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="1">
         <v>17050685132</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="3">
         <v>18872055089</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="10">
         <v>44895</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="1">
         <v>17198008619</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="3">
         <v>15071061492</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="10">
         <v>44897</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="1">
         <v>17025472447</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="3">
         <v>18191390509</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="10">
         <v>44897</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="4">
         <v>17025472447</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="6">
         <v>13212734213</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="11">
         <v>44895</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="7">
         <v>17147715197</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="9">
         <v>13545147593</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="12">
         <v>44895</v>
       </c>
       <c r="H13" s="24" t="s">
@@ -1309,40 +1310,40 @@
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12">
+      <c r="D14" s="21"/>
+      <c r="E14" s="1">
         <v>17014049717</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="25" t="s">
@@ -1358,7 +1359,7 @@
         <v>13129949932</v>
       </c>
       <c r="G18" s="29"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="27" t="s">
@@ -1374,322 +1375,443 @@
         <v>17875713686</v>
       </c>
       <c r="G19" s="29"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="20">
         <v>17050685132</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="22">
         <v>15730080765</v>
       </c>
       <c r="G20" s="31"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10">
+      <c r="E21" s="20"/>
+      <c r="F21" s="22">
         <v>15871380235</v>
       </c>
       <c r="G21" s="31"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10">
+      <c r="E22" s="20"/>
+      <c r="F22" s="22">
         <v>18153623551</v>
       </c>
       <c r="G22" s="31"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10">
+      <c r="E23" s="20"/>
+      <c r="F23" s="22">
         <v>17865815159</v>
       </c>
       <c r="G23" s="31"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10">
+      <c r="E24" s="20"/>
+      <c r="F24" s="22">
         <v>18704601232</v>
       </c>
       <c r="G24" s="31"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10">
+      <c r="E25" s="20"/>
+      <c r="F25" s="22">
         <v>15171980859</v>
       </c>
       <c r="G25" s="31"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="10">
+      <c r="E26" s="20"/>
+      <c r="F26" s="22">
         <v>17865815139</v>
       </c>
       <c r="G26" s="31"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10">
+      <c r="E27" s="20"/>
+      <c r="F27" s="22">
         <v>15982066827</v>
       </c>
       <c r="G27" s="31"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="20">
         <v>17136341196</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="22">
         <v>13657150026</v>
       </c>
       <c r="G30" s="31">
         <v>44902</v>
       </c>
-      <c r="H30" s="11"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="20">
         <v>17129530447</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="22">
         <v>17762459127</v>
       </c>
       <c r="G31" s="31">
         <v>44902</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="20">
         <v>17050683431</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="22">
         <v>18864805773</v>
       </c>
       <c r="G32" s="31">
         <v>44902</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10">
+      <c r="E33" s="20">
+        <v>17190092942</v>
+      </c>
+      <c r="F33" s="22">
         <v>15871380235</v>
       </c>
       <c r="G33" s="31">
         <v>44902</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10">
+      <c r="E34" s="20">
+        <v>15734965373</v>
+      </c>
+      <c r="F34" s="22">
         <v>18153623551</v>
       </c>
       <c r="G34" s="31">
         <v>44902</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="10">
+      <c r="E35" s="20">
+        <v>17040214075</v>
+      </c>
+      <c r="F35" s="22">
         <v>17865815159</v>
       </c>
       <c r="G35" s="31">
         <v>44902</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10">
+      <c r="E36" s="20">
+        <v>17153075010</v>
+      </c>
+      <c r="F36" s="22">
         <v>15171980859</v>
       </c>
       <c r="G36" s="31">
         <v>44902</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="10">
+      <c r="E37" s="20">
+        <v>17198212532</v>
+      </c>
+      <c r="F37" s="22">
         <v>15982066827</v>
       </c>
       <c r="G37" s="31">
         <v>44902</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10">
+      <c r="E38" s="20">
+        <v>17030351179</v>
+      </c>
+      <c r="F38" s="22">
         <v>15730080765</v>
       </c>
       <c r="G38" s="31">
         <v>44902</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10">
+      <c r="E39" s="20">
+        <v>15607045070</v>
+      </c>
+      <c r="F39" s="22">
         <v>17865815139</v>
       </c>
       <c r="G39" s="31">
         <v>44902</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E6:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:9">
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17050685132</v>
+      </c>
+      <c r="H6" s="3">
+        <v>18872055089</v>
+      </c>
+      <c r="I6" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17198008619</v>
+      </c>
+      <c r="H7" s="3">
+        <v>15071061492</v>
+      </c>
+      <c r="I7" s="10">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>17025472447</v>
+      </c>
+      <c r="H8" s="3">
+        <v>18191390509</v>
+      </c>
+      <c r="I8" s="10">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4">
+        <v>17025472447</v>
+      </c>
+      <c r="H9" s="6">
+        <v>13212734213</v>
+      </c>
+      <c r="I9" s="11">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7">
+        <v>17147715197</v>
+      </c>
+      <c r="H10" s="9">
+        <v>13545147593</v>
+      </c>
+      <c r="I10" s="12">
+        <v>44895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -1166,7 +1166,7 @@
   <dimension ref="C7:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1506,7 +1506,9 @@
       <c r="D30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6">
+        <v>17136341196</v>
+      </c>
       <c r="F30" s="7">
         <v>13657150026</v>
       </c>
@@ -1520,7 +1522,9 @@
       <c r="D31" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6">
+        <v>17129530447</v>
+      </c>
       <c r="F31" s="7">
         <v>17762459127</v>
       </c>
@@ -1534,7 +1538,9 @@
       <c r="D32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="6">
+        <v>17050683431</v>
+      </c>
       <c r="F32" s="7">
         <v>18864805773</v>
       </c>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>姓名</t>
   </si>
@@ -32,24 +32,39 @@
     <t>预约时间</t>
   </si>
   <si>
+    <t>1. 关注公众号【武汉市汉阳区妇幼保健院】</t>
+  </si>
+  <si>
+    <t>2. 点击公众号右下角【智慧医疗】-【疫苗接种预约】进入预约挂号页面</t>
+  </si>
+  <si>
     <t>张远媛</t>
   </si>
   <si>
     <t>612426199806235426</t>
   </si>
   <si>
+    <t>3. 预约挂号页面点击【我的】</t>
+  </si>
+  <si>
     <t>黄露丹</t>
   </si>
   <si>
     <t>420802199908260028</t>
   </si>
   <si>
+    <t>4. 点击登录，按照提供的手机号密码登录</t>
+  </si>
+  <si>
     <t>高佩</t>
   </si>
   <si>
     <t>610502200007165626</t>
   </si>
   <si>
+    <t>5. 登录后点击【我的订单】查询预约结果</t>
+  </si>
+  <si>
     <t xml:space="preserve">李梦希 </t>
   </si>
   <si>
@@ -86,16 +101,46 @@
     <t>500382199808086442</t>
   </si>
   <si>
+    <t>刘杉杉</t>
+  </si>
+  <si>
+    <t>230405199608260247</t>
+  </si>
+  <si>
+    <t>雷玉双</t>
+  </si>
+  <si>
+    <t>420583199707093720</t>
+  </si>
+  <si>
+    <t>柴梦鸽</t>
+  </si>
+  <si>
+    <t>142731199711270928</t>
+  </si>
+  <si>
+    <t>王静静</t>
+  </si>
+  <si>
+    <t>622426199808061521</t>
+  </si>
+  <si>
+    <t>赵雅琴</t>
+  </si>
+  <si>
+    <t>421081199905074281</t>
+  </si>
+  <si>
     <t>冯书语</t>
   </si>
   <si>
     <t>422822199801240040</t>
   </si>
   <si>
-    <t>王静静</t>
-  </si>
-  <si>
-    <t>622426199808061521</t>
+    <t>桂子艺</t>
+  </si>
+  <si>
+    <t>42080420021220232X</t>
   </si>
   <si>
     <t>张倩</t>
@@ -104,46 +149,16 @@
     <t>370125199612145946</t>
   </si>
   <si>
-    <t>刘杉杉</t>
-  </si>
-  <si>
-    <t>230405199608260247</t>
-  </si>
-  <si>
-    <t>雷玉双</t>
-  </si>
-  <si>
-    <t>420583199707093720</t>
+    <t>王露露</t>
+  </si>
+  <si>
+    <t>37078619970104064X</t>
   </si>
   <si>
     <t>徐春秀</t>
   </si>
   <si>
     <t>37150219970418932X</t>
-  </si>
-  <si>
-    <t>赵雅琴</t>
-  </si>
-  <si>
-    <t>421081199905074281</t>
-  </si>
-  <si>
-    <t>桂子艺</t>
-  </si>
-  <si>
-    <t>42080420021220232X</t>
-  </si>
-  <si>
-    <t>柴梦鸽</t>
-  </si>
-  <si>
-    <t>142731199711270928</t>
-  </si>
-  <si>
-    <t>王露露</t>
-  </si>
-  <si>
-    <t>37078619970104064X</t>
   </si>
 </sst>
 </file>
@@ -807,6 +822,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -814,6 +836,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -825,12 +850,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,12 +863,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
@@ -1175,54 +1188,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:H41"/>
+  <dimension ref="C7:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="19" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="11" style="15" customWidth="1"/>
-    <col min="8" max="8" width="34.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11" style="21" customWidth="1"/>
+    <col min="8" max="8" width="34.25" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:8">
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="3:12">
+      <c r="C7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="3:8">
+      <c r="H7" s="25"/>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>17050685132</v>
@@ -1230,17 +1249,20 @@
       <c r="F9" s="3">
         <v>18872055089</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="15">
         <v>44895</v>
       </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="3:8">
+      <c r="H9" s="13"/>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>17198008619</v>
@@ -1248,17 +1270,20 @@
       <c r="F10" s="3">
         <v>15071061492</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="15">
         <v>44897</v>
       </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="3:8">
+      <c r="H10" s="13"/>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
         <v>17025472447</v>
@@ -1266,17 +1291,20 @@
       <c r="F11" s="3">
         <v>18191390509</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="15">
         <v>44897</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="13"/>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4">
         <v>17025472447</v>
@@ -1284,17 +1312,17 @@
       <c r="F12" s="6">
         <v>13212734213</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="16">
         <v>44895</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" s="7">
         <v>17147715197</v>
@@ -1302,406 +1330,246 @@
       <c r="F13" s="9">
         <v>13545147593</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="17">
         <v>44895</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>15</v>
+      <c r="H13" s="26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="C14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="1">
         <v>17014049717</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="25" t="s">
-        <v>17</v>
+      <c r="C18" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="27">
+        <v>23</v>
+      </c>
+      <c r="E18" s="29">
         <v>17152022762</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="30">
         <v>13129949932</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="27" t="s">
-        <v>19</v>
+      <c r="C19" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="27">
+        <v>25</v>
+      </c>
+      <c r="E19" s="29">
         <v>17054654268</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="30">
         <v>17875713686</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="20" t="s">
-        <v>21</v>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="20">
+        <v>27</v>
+      </c>
+      <c r="E20" s="10">
         <v>17050685132</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="12">
         <v>15730080765</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="20" t="s">
-        <v>23</v>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22">
-        <v>15871380235</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12">
+        <v>18704601232</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="20" t="s">
-        <v>25</v>
+      <c r="C22" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D22" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12">
+        <v>15171980859</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="10">
+        <v>17129530447</v>
+      </c>
+      <c r="F25" s="12">
+        <v>17762459127</v>
+      </c>
+      <c r="G25" s="18">
+        <v>44902</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="10">
+        <v>15734965373</v>
+      </c>
+      <c r="F26" s="12">
+        <v>18153623551</v>
+      </c>
+      <c r="G26" s="18">
+        <v>44902</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="10">
+        <v>17153075010</v>
+      </c>
+      <c r="F27" s="12">
+        <v>15171980859</v>
+      </c>
+      <c r="G27" s="18">
+        <v>44902</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="10">
+        <v>17198212532</v>
+      </c>
+      <c r="F28" s="12">
+        <v>15982066827</v>
+      </c>
+      <c r="G28" s="18">
+        <v>44902</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22">
-        <v>18153623551</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="20" t="s">
+      <c r="D29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22">
-        <v>17865815159</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="22">
-        <v>18704601232</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="22">
-        <v>15171980859</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22">
-        <v>17865815139</v>
-      </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22">
-        <v>15982066827</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="E29" s="10">
+        <v>17030351179</v>
+      </c>
+      <c r="F29" s="12">
+        <v>15730080765</v>
+      </c>
+      <c r="G29" s="18">
+        <v>44902</v>
+      </c>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="20">
-        <v>17136341196</v>
-      </c>
-      <c r="F30" s="22">
-        <v>13657150026</v>
-      </c>
-      <c r="G30" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H30" s="23"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="20">
-        <v>17129530447</v>
-      </c>
-      <c r="F31" s="22">
-        <v>17762459127</v>
-      </c>
-      <c r="G31" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="20">
-        <v>17050683431</v>
-      </c>
-      <c r="F32" s="22">
-        <v>18864805773</v>
-      </c>
-      <c r="G32" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="20">
-        <v>17190092942</v>
-      </c>
-      <c r="F33" s="22">
-        <v>15871380235</v>
-      </c>
-      <c r="G33" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="20">
-        <v>15734965373</v>
-      </c>
-      <c r="F34" s="22">
-        <v>18153623551</v>
-      </c>
-      <c r="G34" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="20">
-        <v>17040214075</v>
-      </c>
-      <c r="F35" s="22">
-        <v>17865815159</v>
-      </c>
-      <c r="G35" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="20">
-        <v>17153075010</v>
-      </c>
-      <c r="F36" s="22">
-        <v>15171980859</v>
-      </c>
-      <c r="G36" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="20">
-        <v>17198212532</v>
-      </c>
-      <c r="F37" s="22">
-        <v>15982066827</v>
-      </c>
-      <c r="G37" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="20">
-        <v>17030351179</v>
-      </c>
-      <c r="F38" s="22">
-        <v>15730080765</v>
-      </c>
-      <c r="G38" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="20">
-        <v>15607045070</v>
-      </c>
-      <c r="F39" s="22">
-        <v>17865815139</v>
-      </c>
-      <c r="G39" s="31">
-        <v>44902</v>
-      </c>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1712,10 +1580,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E6:I10"/>
+  <dimension ref="E6:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E15" sqref="E15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1727,10 +1595,10 @@
   <sheetData>
     <row r="6" spans="5:9">
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>17050685132</v>
@@ -1738,16 +1606,16 @@
       <c r="H6" s="3">
         <v>18872055089</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="15">
         <v>44895</v>
       </c>
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
         <v>17198008619</v>
@@ -1755,16 +1623,16 @@
       <c r="H7" s="3">
         <v>15071061492</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="15">
         <v>44897</v>
       </c>
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1">
         <v>17025472447</v>
@@ -1772,16 +1640,16 @@
       <c r="H8" s="3">
         <v>18191390509</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="15">
         <v>44897</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4">
         <v>17025472447</v>
@@ -1789,16 +1657,16 @@
       <c r="H9" s="6">
         <v>13212734213</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="16">
         <v>44895</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7">
         <v>17147715197</v>
@@ -1806,9 +1674,234 @@
       <c r="H10" s="9">
         <v>13545147593</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="17">
         <v>44895</v>
       </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="10">
+        <v>17190092942</v>
+      </c>
+      <c r="H11" s="12">
+        <v>15871380235</v>
+      </c>
+      <c r="I11" s="18">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="10">
+        <v>17136341196</v>
+      </c>
+      <c r="H12" s="12">
+        <v>13657150026</v>
+      </c>
+      <c r="I12" s="18">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="10">
+        <v>17040214075</v>
+      </c>
+      <c r="H13" s="12">
+        <v>17865815159</v>
+      </c>
+      <c r="I13" s="18">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="10">
+        <v>17050683431</v>
+      </c>
+      <c r="H14" s="12">
+        <v>18864805773</v>
+      </c>
+      <c r="I14" s="18">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="10">
+        <v>15607045070</v>
+      </c>
+      <c r="H15" s="12">
+        <v>17865815139</v>
+      </c>
+      <c r="I15" s="18">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>姓名</t>
   </si>
@@ -83,6 +83,15 @@
     <t>测试</t>
   </si>
   <si>
+    <t>柴梦鸽</t>
+  </si>
+  <si>
+    <t>142731199711270928</t>
+  </si>
+  <si>
+    <t>放假了</t>
+  </si>
+  <si>
     <t>汪少琴</t>
   </si>
   <si>
@@ -111,12 +120,6 @@
   </si>
   <si>
     <t>420583199707093720</t>
-  </si>
-  <si>
-    <t>柴梦鸽</t>
-  </si>
-  <si>
-    <t>142731199711270928</t>
   </si>
   <si>
     <t>王静静</t>
@@ -324,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +355,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,16 +690,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,10 +711,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,28 +735,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -756,19 +765,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,38 +786,41 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -828,7 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -853,6 +861,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -866,6 +883,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
@@ -1191,36 +1209,36 @@
   <dimension ref="C7:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C15" sqref="C15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="18" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11" style="21" customWidth="1"/>
-    <col min="8" max="8" width="34.25" style="21" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11" style="20" customWidth="1"/>
+    <col min="8" max="8" width="34.25" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:12">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="24"/>
       <c r="L7" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1258,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1">
@@ -1249,7 +1267,7 @@
       <c r="F9" s="3">
         <v>18872055089</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>44895</v>
       </c>
       <c r="H9" s="13"/>
@@ -1261,7 +1279,7 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1">
@@ -1270,7 +1288,7 @@
       <c r="F10" s="3">
         <v>15071061492</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>44897</v>
       </c>
       <c r="H10" s="13"/>
@@ -1282,7 +1300,7 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="37" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1">
@@ -1291,7 +1309,7 @@
       <c r="F11" s="3">
         <v>18191390509</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>44897</v>
       </c>
       <c r="H11" s="13"/>
@@ -1303,7 +1321,7 @@
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4">
@@ -1312,7 +1330,7 @@
       <c r="F12" s="6">
         <v>13212734213</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>44895</v>
       </c>
       <c r="H12" s="13"/>
@@ -1321,7 +1339,7 @@
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="7">
@@ -1330,10 +1348,10 @@
       <c r="F13" s="9">
         <v>13545147593</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>44895</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1350,12 +1368,24 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="C15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="26">
+        <v>17129530447</v>
+      </c>
+      <c r="F15" s="28">
+        <v>17762459127</v>
+      </c>
+      <c r="G15" s="29">
+        <v>44902</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="10"/>
@@ -1374,43 +1404,43 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="29">
+      <c r="C18" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="33">
         <v>17152022762</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="34">
         <v>13129949932</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="29">
+      <c r="C19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="33">
         <v>17054654268</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="34">
         <v>17875713686</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="10">
         <v>17050685132</v>
@@ -1418,35 +1448,35 @@
       <c r="F20" s="12">
         <v>15730080765</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="12">
         <v>18704601232</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="12">
         <v>15171980859</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="3:8">
@@ -1467,10 +1497,10 @@
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="10">
         <v>17129530447</v>
@@ -1478,17 +1508,17 @@
       <c r="F25" s="12">
         <v>17762459127</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <v>44902</v>
       </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="38" t="s">
         <v>35</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="E26" s="10">
         <v>15734965373</v>
@@ -1496,17 +1526,17 @@
       <c r="F26" s="12">
         <v>18153623551</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <v>44902</v>
       </c>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" s="10">
         <v>17153075010</v>
@@ -1514,17 +1544,17 @@
       <c r="F27" s="12">
         <v>15171980859</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <v>44902</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="10">
         <v>17198212532</v>
@@ -1532,17 +1562,17 @@
       <c r="F28" s="12">
         <v>15982066827</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <v>44902</v>
       </c>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E29" s="10">
         <v>17030351179</v>
@@ -1550,7 +1580,7 @@
       <c r="F29" s="12">
         <v>15730080765</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <v>44902</v>
       </c>
       <c r="H29" s="13"/>
@@ -1597,7 +1627,7 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="37" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1">
@@ -1606,7 +1636,7 @@
       <c r="H6" s="3">
         <v>18872055089</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>44895</v>
       </c>
     </row>
@@ -1614,7 +1644,7 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="37" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1">
@@ -1623,7 +1653,7 @@
       <c r="H7" s="3">
         <v>15071061492</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>44897</v>
       </c>
     </row>
@@ -1631,7 +1661,7 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
@@ -1640,7 +1670,7 @@
       <c r="H8" s="3">
         <v>18191390509</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>44897</v>
       </c>
     </row>
@@ -1648,7 +1678,7 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="4">
@@ -1657,7 +1687,7 @@
       <c r="H9" s="6">
         <v>13212734213</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>44895</v>
       </c>
     </row>
@@ -1665,7 +1695,7 @@
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="39" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7">
@@ -1674,16 +1704,16 @@
       <c r="H10" s="9">
         <v>13545147593</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>44895</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="38" t="s">
         <v>39</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1691,16 +1721,16 @@
       <c r="H11" s="12">
         <v>15871380235</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>44902</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1708,16 +1738,16 @@
       <c r="H12" s="12">
         <v>13657150026</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>44902</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1725,16 +1755,16 @@
       <c r="H13" s="12">
         <v>17865815159</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>44902</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1742,16 +1772,16 @@
       <c r="H14" s="12">
         <v>18864805773</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>44902</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>
@@ -1759,149 +1789,149 @@
       <c r="H15" s="12">
         <v>17865815139</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>44902</v>
       </c>
     </row>
     <row r="16" spans="5:9">
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="5:9">
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="5:9">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="5:9">
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="5:9">
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="5:9">
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="5:9">
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="5:9">
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="5:9">
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="5:9">
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="5:9">
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="5:9">
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="5:9">
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>姓名</t>
   </si>
@@ -92,40 +92,49 @@
     <t>放假了</t>
   </si>
   <si>
+    <t>晏林</t>
+  </si>
+  <si>
+    <t>500382199808086442</t>
+  </si>
+  <si>
+    <t>胡雪敏</t>
+  </si>
+  <si>
+    <t>421023199507142927</t>
+  </si>
+  <si>
+    <t>超龄了，号可以回收</t>
+  </si>
+  <si>
+    <t>刘杉杉</t>
+  </si>
+  <si>
+    <t>230405199608260247</t>
+  </si>
+  <si>
+    <t>超龄了</t>
+  </si>
+  <si>
     <t>汪少琴</t>
   </si>
   <si>
     <t>420322199908261221</t>
   </si>
   <si>
-    <t>胡雪敏</t>
-  </si>
-  <si>
-    <t>421023199507142927</t>
-  </si>
-  <si>
-    <t>晏林</t>
-  </si>
-  <si>
-    <t>500382199808086442</t>
-  </si>
-  <si>
-    <t>刘杉杉</t>
-  </si>
-  <si>
-    <t>230405199608260247</t>
+    <t>寝室封了还没出来</t>
+  </si>
+  <si>
+    <t>王静静</t>
+  </si>
+  <si>
+    <t>622426199808061521</t>
   </si>
   <si>
     <t>雷玉双</t>
   </si>
   <si>
     <t>420583199707093720</t>
-  </si>
-  <si>
-    <t>王静静</t>
-  </si>
-  <si>
-    <t>622426199808061521</t>
   </si>
   <si>
     <t>赵雅琴</t>
@@ -872,21 +881,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1206,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:L31"/>
+  <dimension ref="C7:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:H15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1220,6 +1229,7 @@
     <col min="6" max="6" width="12.625" style="19" customWidth="1"/>
     <col min="7" max="7" width="11" style="20" customWidth="1"/>
     <col min="8" max="8" width="34.25" style="20" customWidth="1"/>
+    <col min="13" max="14" width="12.625"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:12">
@@ -1388,125 +1398,120 @@
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="10">
+        <v>17050685132</v>
+      </c>
+      <c r="F16" s="12">
+        <v>15730080765</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="31">
+        <v>17054654268</v>
+      </c>
+      <c r="F17" s="33">
+        <v>17875713686</v>
+      </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="31" t="s">
-        <v>25</v>
+      <c r="C18" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12">
+        <v>18704601232</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19" s="34"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="31">
         <v>17152022762</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F20" s="33">
         <v>13129949932</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="33">
-        <v>17054654268</v>
-      </c>
-      <c r="F19" s="34">
-        <v>17875713686</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="10">
-        <v>17050685132</v>
-      </c>
-      <c r="F20" s="12">
-        <v>15730080765</v>
-      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="10">
+        <v>17129530447</v>
+      </c>
       <c r="F21" s="12">
-        <v>18704601232</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12">
-        <v>15171980859</v>
-      </c>
-      <c r="G22" s="17"/>
+        <v>17762459127</v>
+      </c>
+      <c r="G21" s="17">
+        <v>44902</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="12"/>
+    <row r="23" spans="7:8">
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+    <row r="24" spans="8:8">
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="E25" s="10">
-        <v>17129530447</v>
+        <v>15734965373</v>
       </c>
       <c r="F25" s="12">
-        <v>17762459127</v>
+        <v>18153623551</v>
       </c>
       <c r="G25" s="17">
         <v>44902</v>
@@ -1515,16 +1520,16 @@
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E26" s="10">
-        <v>15734965373</v>
+        <v>17153075010</v>
       </c>
       <c r="F26" s="12">
-        <v>18153623551</v>
+        <v>15171980859</v>
       </c>
       <c r="G26" s="17">
         <v>44902</v>
@@ -1533,16 +1538,16 @@
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E27" s="10">
-        <v>17153075010</v>
+        <v>17198212532</v>
       </c>
       <c r="F27" s="12">
-        <v>15171980859</v>
+        <v>15982066827</v>
       </c>
       <c r="G27" s="17">
         <v>44902</v>
@@ -1551,16 +1556,16 @@
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E28" s="10">
-        <v>17198212532</v>
+        <v>17030351179</v>
       </c>
       <c r="F28" s="12">
-        <v>15982066827</v>
+        <v>15730080765</v>
       </c>
       <c r="G28" s="17">
         <v>44902</v>
@@ -1568,21 +1573,11 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="10">
-        <v>17030351179</v>
-      </c>
-      <c r="F29" s="12">
-        <v>15730080765</v>
-      </c>
-      <c r="G29" s="17">
-        <v>44902</v>
-      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="3:8">
@@ -1592,14 +1587,6 @@
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,10 +1697,10 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1727,10 +1714,10 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1744,10 +1731,10 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1761,10 +1748,10 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1778,10 +1765,10 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>姓名</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>421081199905074281</t>
+  </si>
+  <si>
+    <t>刘萍</t>
+  </si>
+  <si>
+    <t>370285199612013224</t>
   </si>
   <si>
     <t>冯书语</t>
@@ -1218,7 +1224,7 @@
   <dimension ref="C7:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C29" sqref="C29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1573,10 +1579,18 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="12"/>
+      <c r="C29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="31">
+        <v>17054654268</v>
+      </c>
+      <c r="F29" s="33">
+        <v>15207127787</v>
+      </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
@@ -1697,10 +1711,10 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1714,10 +1728,10 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1731,10 +1745,10 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1748,10 +1762,10 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1765,10 +1779,10 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -1224,7 +1224,7 @@
   <dimension ref="C7:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:F29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>姓名</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>370285199612013224</t>
+  </si>
+  <si>
+    <t>密码Se22223333</t>
   </si>
   <si>
     <t>冯书语</t>
@@ -1224,7 +1227,7 @@
   <dimension ref="C7:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1586,13 +1589,13 @@
         <v>43</v>
       </c>
       <c r="E29" s="31">
-        <v>17054654268</v>
-      </c>
-      <c r="F29" s="33">
         <v>15207127787</v>
       </c>
+      <c r="F29" s="33"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="10"/>
@@ -1711,10 +1714,10 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1728,10 +1731,10 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1745,10 +1748,10 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1762,10 +1765,10 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1779,10 +1782,10 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>

--- a/miaoTemp/楚天/汉阳用户.xlsx
+++ b/miaoTemp/楚天/汉阳用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11070"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>姓名</t>
   </si>
@@ -149,7 +149,10 @@
     <t>370285199612013224</t>
   </si>
   <si>
-    <t>密码Se22223333</t>
+    <t>马俐</t>
+  </si>
+  <si>
+    <t>421087199805295325</t>
   </si>
   <si>
     <t>冯书语</t>
@@ -1227,7 +1230,7 @@
   <dimension ref="C7:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1522,9 +1525,7 @@
       <c r="F25" s="12">
         <v>18153623551</v>
       </c>
-      <c r="G25" s="17">
-        <v>44902</v>
-      </c>
+      <c r="G25" s="17"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="3:8">
@@ -1540,9 +1541,7 @@
       <c r="F26" s="12">
         <v>15171980859</v>
       </c>
-      <c r="G26" s="17">
-        <v>44902</v>
-      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="3:8">
@@ -1558,9 +1557,7 @@
       <c r="F27" s="12">
         <v>15982066827</v>
       </c>
-      <c r="G27" s="17">
-        <v>44902</v>
-      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="3:8">
@@ -1570,15 +1567,11 @@
       <c r="D28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="10">
-        <v>17030351179</v>
-      </c>
+      <c r="E28" s="10"/>
       <c r="F28" s="12">
         <v>15730080765</v>
       </c>
-      <c r="G28" s="17">
-        <v>44902</v>
-      </c>
+      <c r="G28" s="17"/>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="3:8">
@@ -1589,19 +1582,27 @@
         <v>43</v>
       </c>
       <c r="E29" s="31">
+        <v>17054654268</v>
+      </c>
+      <c r="F29" s="33">
         <v>15207127787</v>
       </c>
-      <c r="F29" s="33"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="10">
+        <v>17030351179</v>
+      </c>
+      <c r="F30" s="12">
+        <v>17354485221</v>
+      </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
@@ -1714,10 +1715,10 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1731,10 +1732,10 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1748,10 +1749,10 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1765,10 +1766,10 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1782,10 +1783,10 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>
